--- a/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1039706.10</t>
+          <t>1042987.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>532</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3815458.66</t>
+          <t>3836269.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>707</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6526076.30</t>
+          <t>6573657.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>798</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5102970.45</t>
+          <t>5186204.95</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>455</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1470152.96</t>
+          <t>1479752.96</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10256416.17</t>
+          <t>10292750.17</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>693250.00</t>
+          <t>738250.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>656</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4414105.68</t>
+          <t>4504105.68</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9756214.95</t>
+          <t>9801214.95</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1665</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>9062315.02</t>
+          <t>9105315.02</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
